--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
@@ -1031,7 +1031,7 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1067,7 +1067,7 @@
         <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1159,7 +1159,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1168,13 +1168,13 @@
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1192,13 +1192,13 @@
         <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1219,7 +1219,7 @@
         <v>34</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>126</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
         <v>15</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
@@ -1335,10 +1335,10 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
@@ -1347,7 +1347,7 @@
         <v>6.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1368,7 +1368,7 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1675,7 +1675,7 @@
         <v>3.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
         <v>6.3</v>
@@ -1708,13 +1708,13 @@
         <v>6.9</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Y7" t="n">
         <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1744,7 +1744,7 @@
         <v>10.75</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -783,7 +783,7 @@
         <v>1.33</v>
       </c>
       <c r="S2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T2" t="n">
         <v>2.08</v>
@@ -932,7 +932,7 @@
         <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>5.5</v>
@@ -941,10 +941,10 @@
         <v>2.6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.13</v>
@@ -953,58 +953,58 @@
         <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -1028,10 +1028,10 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>29</v>
@@ -1040,13 +1040,13 @@
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>301</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1058,7 +1058,7 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1147,10 +1147,10 @@
         <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>6</v>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
@@ -1228,7 +1228,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1475,61 +1475,61 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K6" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
         <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>7.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
         <v>10.25</v>
@@ -1541,16 +1541,16 @@
         <v>24</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG6" t="n">
         <v>17</v>
@@ -1562,7 +1562,7 @@
         <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="n">
         <v>55</v>
@@ -1574,34 +1574,34 @@
         <v>500</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AP6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AS6" t="n">
         <v>200</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU6" t="n">
         <v>7.8</v>
       </c>
       <c r="AV6" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AX6" t="n">
         <v>32</v>
@@ -1616,7 +1616,7 @@
         <v>200</v>
       </c>
       <c r="BB6" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -750,10 +750,10 @@
         <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -771,28 +771,28 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -929,100 +929,100 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.57</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>201</v>
@@ -1031,22 +1031,22 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>10</v>
@@ -1055,7 +1055,7 @@
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1067,7 +1067,7 @@
         <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1153,55 +1153,55 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y4" t="n">
         <v>15</v>
       </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI4" t="n">
         <v>10</v>
       </c>
-      <c r="AI4" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1210,19 +1210,19 @@
         <v>900</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1237,16 +1237,16 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2.37</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="X6" t="n">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD6" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z6" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AE6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI6" t="n">
         <v>17</v>
       </c>
-      <c r="AF6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>45</v>
       </c>
       <c r="AS6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
@@ -1675,16 +1675,16 @@
         <v>3.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.15</v>
@@ -1705,16 +1705,16 @@
         <v>1.85</v>
       </c>
       <c r="W7" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>9.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
         <v>21</v>
@@ -1723,34 +1723,34 @@
         <v>35</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD7" t="n">
         <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
         <v>8.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ7" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL7" t="n">
         <v>40</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>37</v>
       </c>
       <c r="AM7" t="n">
         <v>700</v>
@@ -1768,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="AR7" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS7" t="n">
         <v>300</v>
@@ -1789,7 +1789,7 @@
         <v>16.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ7" t="n">
         <v>80</v>
@@ -1798,7 +1798,7 @@
         <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>1.75</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1129,10 +1129,10 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1335,40 +1335,40 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG5" t="n">
         <v>13</v>
@@ -1383,7 +1383,7 @@
         <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1392,43 +1392,43 @@
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
         <v>151</v>
@@ -1475,46 +1475,46 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.52</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
         <v>2.37</v>
       </c>
-      <c r="L6" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="U6" t="n">
         <v>1.7</v>
@@ -1523,97 +1523,97 @@
         <v>2.02</v>
       </c>
       <c r="W6" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X6" t="n">
         <v>7.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AE6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL6" t="n">
         <v>50</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>45</v>
       </c>
       <c r="AM6" t="n">
         <v>400</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO6" t="n">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>60</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AY6" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA6" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB6" t="n">
         <v>350</v>
@@ -1657,115 +1657,115 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>1.78</v>
       </c>
       <c r="R7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.65</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.85</v>
+        <v>2.12</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>8.75</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB7" t="n">
         <v>25</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AC7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP7" t="n">
         <v>21</v>
       </c>
-      <c r="AB7" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR7" t="n">
         <v>90</v>
@@ -1774,7 +1774,7 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AU7" t="n">
         <v>7.1</v>
@@ -1786,19 +1786,19 @@
         <v>4.85</v>
       </c>
       <c r="AX7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
@@ -1848,16 +1848,16 @@
         <v>3.35</v>
       </c>
       <c r="J8" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>7.1</v>
@@ -1875,10 +1875,10 @@
         <v>1.8</v>
       </c>
       <c r="S8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
@@ -1887,28 +1887,28 @@
         <v>1.95</v>
       </c>
       <c r="W8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X8" t="n">
         <v>10</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
         <v>7.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE8" t="n">
         <v>14</v>
@@ -1923,16 +1923,16 @@
         <v>18</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>45</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="n">
         <v>500</v>
@@ -1941,22 +1941,22 @@
         <v>4</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU8" t="n">
         <v>7.1</v>
@@ -1965,10 +1965,10 @@
         <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AY8" t="n">
         <v>25</v>
@@ -2168,6 +2168,188 @@
         <v>51</v>
       </c>
       <c r="BD9" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lv2brO9r</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD10" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -929,52 +929,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -989,16 +989,16 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1007,13 +1007,13 @@
         <v>81</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>67</v>
@@ -1028,28 +1028,28 @@
         <v>201</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU3" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1114,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1129,22 +1129,22 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1159,7 +1159,7 @@
         <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1177,7 +1177,7 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1201,7 +1201,7 @@
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
         <v>2.9</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L7" t="n">
         <v>3.5</v>
@@ -1678,25 +1678,25 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="U7" t="n">
         <v>1.65</v>
@@ -1708,13 +1708,13 @@
         <v>8.75</v>
       </c>
       <c r="X7" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
         <v>17.5</v>
@@ -1723,10 +1723,10 @@
         <v>25</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>12.5</v>
@@ -1735,7 +1735,7 @@
         <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>16</v>
@@ -1750,22 +1750,22 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM7" t="n">
         <v>350</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR7" t="n">
         <v>90</v>
@@ -1774,7 +1774,7 @@
         <v>300</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AU7" t="n">
         <v>7.1</v>
@@ -1783,22 +1783,22 @@
         <v>65</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX7" t="n">
         <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,58 +1839,58 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>3.3</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.35</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T8" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="W8" t="n">
-        <v>7.4</v>
+        <v>8.75</v>
       </c>
       <c r="X8" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1899,79 +1899,79 @@
         <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ8" t="n">
         <v>45</v>
       </c>
       <c r="AK8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>350</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>37</v>
       </c>
-      <c r="AM8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>40</v>
-      </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
         <v>5.3</v>
       </c>
       <c r="AX8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>90</v>
@@ -2027,16 +2027,16 @@
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2051,7 +2051,7 @@
         <v>3.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.87</v>
@@ -2060,7 +2060,7 @@
         <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
         <v>1.65</v>
@@ -2081,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="n">
         <v>7.3</v>
@@ -2093,7 +2093,7 @@
         <v>6.3</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>55</v>
@@ -2102,16 +2102,16 @@
         <v>8.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI9" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2138,7 +2138,7 @@
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>6.8</v>
@@ -2150,16 +2150,16 @@
         <v>4.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ9" t="n">
         <v>60</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -765,10 +765,10 @@
         <v>4.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -777,10 +777,10 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.75</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
@@ -825,7 +825,7 @@
         <v>101</v>
       </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.3</v>
@@ -944,13 +944,13 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -971,10 +971,10 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
@@ -986,16 +986,16 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1031,7 +1031,7 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1043,13 +1043,13 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT3" t="n">
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>501</v>
@@ -1111,61 +1111,61 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W4" t="n">
         <v>8</v>
       </c>
       <c r="X4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="n">
         <v>17</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
@@ -1186,13 +1186,13 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
@@ -1213,13 +1213,13 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>151</v>
@@ -1228,16 +1228,16 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L5" t="n">
         <v>5.5</v>
       </c>
-      <c r="J5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1344,13 +1344,13 @@
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1371,31 +1371,31 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>900</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1419,22 +1419,22 @@
         <v>67</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
         <v>1.87</v>
@@ -1499,22 +1499,22 @@
         <v>9.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P6" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U6" t="n">
         <v>1.7</v>
@@ -1526,7 +1526,7 @@
         <v>8.75</v>
       </c>
       <c r="X6" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
@@ -1553,10 +1553,10 @@
         <v>60</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="n">
         <v>20</v>
@@ -1571,7 +1571,7 @@
         <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN6" t="n">
         <v>3.45</v>
@@ -1592,16 +1592,16 @@
         <v>150</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX6" t="n">
         <v>35</v>
@@ -1657,34 +1657,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="J7" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L7" t="n">
         <v>3.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
         <v>1.82</v>
@@ -1693,43 +1693,43 @@
         <v>1.93</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V7" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W7" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>50</v>
@@ -1744,10 +1744,10 @@
         <v>10.25</v>
       </c>
       <c r="AJ7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL7" t="n">
         <v>29</v>
@@ -1756,49 +1756,49 @@
         <v>350</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AQ7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV7" t="n">
         <v>55</v>
       </c>
-      <c r="AR7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>65</v>
-      </c>
       <c r="AW7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AX7" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>80</v>
       </c>
       <c r="BA7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1839,142 +1839,142 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L8" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T8" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG8" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="AO8" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA8" t="n">
         <v>120</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L9" t="n">
         <v>3.1</v>
@@ -2042,58 +2042,58 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W9" t="n">
         <v>9.5</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
         <v>55</v>
@@ -2105,10 +2105,10 @@
         <v>12.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
         <v>20</v>
@@ -2120,25 +2120,25 @@
         <v>400</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR9" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS9" t="n">
         <v>250</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU9" t="n">
         <v>6.8</v>
@@ -2147,7 +2147,7 @@
         <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AX9" t="n">
         <v>13.5</v>
@@ -2203,145 +2203,145 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="H10" t="n">
-        <v>4.15</v>
+        <v>4.45</v>
       </c>
       <c r="I10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.3</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="X10" t="n">
         <v>6.1</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO10" t="n">
         <v>6.4</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AR10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS10" t="n">
         <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>100</v>
       </c>
       <c r="AW10" t="n">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX10" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AY10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ10" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BA10" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB10" t="n">
         <v>450</v>
@@ -2350,6 +2350,188 @@
         <v>51</v>
       </c>
       <c r="BD10" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pEsU4zKt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TNS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Caernarfon</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>400</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD11" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -750,10 +750,10 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.25</v>
@@ -762,13 +762,13 @@
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.73</v>
@@ -783,10 +783,10 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="T2" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="U2" t="n">
         <v>2.63</v>
@@ -801,31 +801,31 @@
         <v>9</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH2" t="n">
         <v>15</v>
@@ -849,16 +849,16 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS2" t="n">
         <v>351</v>
@@ -876,13 +876,13 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1347,7 +1347,7 @@
         <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>13</v>
@@ -1359,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7</v>
@@ -1389,19 +1389,19 @@
         <v>41</v>
       </c>
       <c r="AM5" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AN5" t="n">
         <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1422,7 +1422,7 @@
         <v>6.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1475,148 +1475,148 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="L6" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P6" t="n">
-        <v>4.55</v>
+        <v>4.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="R6" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="T6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="U6" t="n">
         <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>8.25</v>
       </c>
       <c r="Z6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA6" t="n">
         <v>10</v>
       </c>
-      <c r="AA6" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>60</v>
       </c>
       <c r="AG6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI6" t="n">
         <v>23</v>
       </c>
-      <c r="AH6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM6" t="n">
         <v>350</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AS6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV6" t="n">
         <v>55</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY6" t="n">
         <v>35</v>
       </c>
-      <c r="AY6" t="n">
-        <v>32</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA6" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB6" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1657,88 +1657,88 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I7" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="K7" t="n">
         <v>2.07</v>
       </c>
       <c r="L7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="S7" t="n">
         <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z7" t="n">
         <v>25</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>10.25</v>
@@ -1747,34 +1747,34 @@
         <v>37</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AN7" t="n">
         <v>4.3</v>
       </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP7" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>50</v>
       </c>
       <c r="AR7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU7" t="n">
         <v>6.7</v>
@@ -1783,7 +1783,7 @@
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
         <v>16.5</v>
@@ -1839,58 +1839,58 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.15</v>
       </c>
-      <c r="L8" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y8" t="n">
         <v>8.25</v>
@@ -1899,28 +1899,28 @@
         <v>16.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
@@ -1935,43 +1935,43 @@
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
         <v>35</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
         <v>5.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
         <v>100</v>
@@ -1980,7 +1980,7 @@
         <v>120</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -2042,7 +2042,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.29</v>
@@ -2063,19 +2063,19 @@
         <v>2.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z9" t="n">
         <v>32</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD9" t="n">
         <v>6.2</v>
@@ -2099,28 +2099,28 @@
         <v>55</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
         <v>400</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2129,25 +2129,25 @@
         <v>22</v>
       </c>
       <c r="AQ9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR9" t="n">
         <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT9" t="n">
         <v>2.67</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV9" t="n">
         <v>60</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX9" t="n">
         <v>13.5</v>
@@ -2156,7 +2156,7 @@
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BA9" t="n">
         <v>90</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="J10" t="n">
         <v>1.9</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.27</v>
@@ -2239,10 +2239,10 @@
         <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U10" t="n">
         <v>2.1</v>
@@ -2251,10 +2251,10 @@
         <v>1.65</v>
       </c>
       <c r="W10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2269,7 +2269,7 @@
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD10" t="n">
         <v>8.75</v>
@@ -2281,19 +2281,19 @@
         <v>120</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AK10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL10" t="n">
         <v>90</v>
@@ -2311,7 +2311,7 @@
         <v>18.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>55</v>
@@ -2320,7 +2320,7 @@
         <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2329,7 +2329,7 @@
         <v>100</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX10" t="n">
         <v>45</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="H11" t="n">
         <v>5.6</v>
       </c>
       <c r="I11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>1.62</v>
       </c>
       <c r="K11" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
         <v>1.02</v>
@@ -2412,13 +2412,13 @@
         <v>1.12</v>
       </c>
       <c r="P11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="S11" t="n">
         <v>1.23</v>
@@ -2427,10 +2427,10 @@
         <v>3.75</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
         <v>10</v>
@@ -2445,7 +2445,7 @@
         <v>8.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB11" t="n">
         <v>22</v>
@@ -2457,25 +2457,25 @@
         <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AK11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
         <v>70</v>
@@ -2499,7 +2499,7 @@
         <v>30</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AT11" t="n">
         <v>3.75</v>
@@ -2511,19 +2511,19 @@
         <v>55</v>
       </c>
       <c r="AW11" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AX11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AY11" t="n">
         <v>40</v>
       </c>
       <c r="AZ11" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BA11" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB11" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD11"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SKP4Yhee</t>
+          <t>WIF4Wj4P</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico-MG</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.8</v>
       </c>
-      <c r="L2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.44</v>
-      </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y2" t="n">
         <v>9</v>
       </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="n">
         <v>29</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
         <v>51</v>
       </c>
-      <c r="AC2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>126</v>
-      </c>
       <c r="AG2" t="n">
-        <v>6.5</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
       </c>
       <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV2" t="n">
         <v>51</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AW2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC2" t="n">
         <v>126</v>
       </c>
-      <c r="AS2" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>81</v>
-      </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zcJ8rhyg</t>
+          <t>SKP4Yhee</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -920,157 +920,157 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
         <v>6.5</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU3" t="n">
         <v>11</v>
       </c>
-      <c r="AA3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
         <v>151</v>
       </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GKUmRBgt</t>
+          <t>zcJ8rhyg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,143 +1092,143 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Envigado</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W4" t="n">
         <v>5.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA4" t="n">
         <v>17</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AB4" t="n">
         <v>41</v>
       </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP4" t="n">
         <v>23</v>
       </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1237,34 +1237,34 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA4" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC4" t="n">
         <v>81</v>
       </c>
-      <c r="BB4" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hn1mYp7N</t>
+          <t>GKUmRBgt</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,157 +1284,157 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dep. Cali</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH5" t="n">
         <v>5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N5" t="n">
-        <v>9</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="AI5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
         <v>2.1</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6</v>
-      </c>
-      <c r="X5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX5" t="n">
         <v>13</v>
       </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AY5" t="n">
         <v>29</v>
       </c>
-      <c r="AC5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>41</v>
       </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>700</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>101</v>
-      </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IeBSmpnL</t>
+          <t>hn1mYp7N</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Dep. Cali</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
         <v>1.36</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
         <v>7.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
       <c r="Y6" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.75</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.55</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dtNJk6H8</t>
+          <t>IeBSmpnL</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1648,157 +1648,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>El Paso</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>FC Tulsa</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.27</v>
+        <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.92</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.87</v>
+        <v>1.75</v>
       </c>
       <c r="K7" t="n">
-        <v>2.07</v>
+        <v>2.57</v>
       </c>
       <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.55</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="U7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
         <v>8</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W7" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Y7" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>25</v>
+        <v>9.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.6</v>
+        <v>9.75</v>
       </c>
       <c r="AE7" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>10.25</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="AL7" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.72</v>
+        <v>3.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
-        <v>16.5</v>
+        <v>40</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="BA7" t="n">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>v5COlQWE</t>
+          <t>dtNJk6H8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1830,43 +1830,43 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>El Paso</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>2.47</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1875,112 +1875,112 @@
         <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V8" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="X8" t="n">
-        <v>9.75</v>
+        <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA8" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA8" t="n">
-        <v>14</v>
-      </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="AF8" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>50</v>
       </c>
-      <c r="AG8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>35</v>
-      </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
         <v>200</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AV8" t="n">
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -1992,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nVFWn41R</t>
+          <t>v5COlQWE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2012,154 +2012,154 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.47</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.07</v>
       </c>
-      <c r="L9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.67</v>
+        <v>2.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB9" t="n">
         <v>22</v>
       </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>8.75</v>
+        <v>350</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.25</v>
+        <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>19.5</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM9" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AS9" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.67</v>
+        <v>2.92</v>
       </c>
       <c r="AU9" t="n">
         <v>6.9</v>
       </c>
       <c r="AV9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.45</v>
+        <v>5.6</v>
       </c>
       <c r="AX9" t="n">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="BA9" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2174,7 +2174,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lv2brO9r</t>
+          <t>nVFWn41R</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2194,157 +2194,157 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sacramento Republic</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Monterey Bay</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>7.7</v>
+        <v>2.47</v>
       </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U10" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.1</v>
       </c>
-      <c r="V10" t="n">
-        <v>1.65</v>
-      </c>
       <c r="W10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.2</v>
       </c>
-      <c r="X10" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH10" t="n">
         <v>8.75</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AI10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
         <v>22</v>
       </c>
-      <c r="AF10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AK10" t="n">
+      <c r="AQ10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR10" t="n">
         <v>100</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>55</v>
       </c>
       <c r="AS10" t="n">
         <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="AV10" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>8.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX10" t="n">
-        <v>45</v>
+        <v>13.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="BA10" t="n">
-        <v>400</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2356,182 +2356,364 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>lv2brO9r</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>23:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sacramento Republic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Monterey Bay</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>pEsU4zKt</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>09/10/2024</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>15:45</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>TNS</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Caernarfon</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="G12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J12" t="n">
         <v>1.62</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="M11" t="n">
+      <c r="K12" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.02</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N12" t="n">
         <v>10</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="O12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.75</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V12" t="n">
         <v>1.95</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA12" t="n">
         <v>10</v>
       </c>
-      <c r="X11" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AU12" t="n">
         <v>8.25</v>
       </c>
-      <c r="AA11" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM11" t="n">
+      <c r="AV12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB12" t="n">
         <v>400</v>
       </c>
-      <c r="AN11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>400</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC11" t="n">
+      <c r="BC12" t="n">
         <v>500</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD12" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -1296,7 +1296,7 @@
         <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
         <v>2.1</v>
@@ -1311,10 +1311,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.62</v>
@@ -1335,10 +1335,10 @@
         <v>2.1</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>8</v>
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
         <v>41</v>
@@ -1359,7 +1359,7 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="AY5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1660,19 +1660,19 @@
         <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="K7" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1681,10 +1681,10 @@
         <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q7" t="n">
         <v>1.45</v>
@@ -1693,7 +1693,7 @@
         <v>2.55</v>
       </c>
       <c r="S7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T7" t="n">
         <v>3.55</v>
@@ -1708,16 +1708,16 @@
         <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
         <v>9.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB7" t="n">
         <v>20</v>
@@ -1726,10 +1726,10 @@
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>60</v>
@@ -1738,28 +1738,28 @@
         <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
         <v>175</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
         <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
@@ -1771,34 +1771,34 @@
         <v>32</v>
       </c>
       <c r="AS7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT7" t="n">
         <v>3.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB7" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1842,19 +1842,19 @@
         <v>2.27</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
         <v>1.7</v>
@@ -1878,49 +1878,49 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE8" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH8" t="n">
         <v>11.25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
       </c>
       <c r="AI8" t="n">
         <v>17</v>
@@ -1932,7 +1932,7 @@
         <v>37</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
         <v>26</v>
@@ -1944,43 +1944,43 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2027,13 +2027,13 @@
         <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
@@ -2057,10 +2057,10 @@
         <v>2.07</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T9" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -2069,7 +2069,7 @@
         <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>9.75</v>
@@ -2099,7 +2099,7 @@
         <v>50</v>
       </c>
       <c r="AG9" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH9" t="n">
         <v>13</v>
@@ -2108,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
         <v>55</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR9" t="n">
         <v>60</v>
@@ -2138,7 +2138,7 @@
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU9" t="n">
         <v>6.9</v>
@@ -2147,7 +2147,7 @@
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AX9" t="n">
         <v>19.5</v>
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I11" t="n">
         <v>7.7</v>
@@ -2400,7 +2400,7 @@
         <v>2.27</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2412,13 +2412,13 @@
         <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
         <v>1.39</v>
@@ -2433,7 +2433,7 @@
         <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X11" t="n">
         <v>6</v>
@@ -2454,7 +2454,7 @@
         <v>7.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>22</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="I12" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="K12" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="L12" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2594,118 +2594,118 @@
         <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="R12" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X12" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>10.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AF12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>35</v>
       </c>
-      <c r="AI12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>29</v>
-      </c>
       <c r="AK12" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
         <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AP12" t="n">
         <v>13</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS12" t="n">
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AY12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ12" t="n">
+        <v>400</v>
+      </c>
+      <c r="BA12" t="n">
         <v>300</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>250</v>
       </c>
       <c r="BB12" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -935,7 +935,7 @@
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.25</v>
@@ -1141,10 +1141,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S4" t="n">
         <v>1.5</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1365,7 +1365,7 @@
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
         <v>101</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1660,7 +1660,7 @@
         <v>1.36</v>
       </c>
       <c r="H7" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
         <v>7.2</v>
@@ -1672,25 +1672,25 @@
         <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.14</v>
       </c>
       <c r="P7" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="S7" t="n">
         <v>1.25</v>
@@ -1705,16 +1705,16 @@
         <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA7" t="n">
         <v>10.25</v>
@@ -1723,13 +1723,13 @@
         <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
         <v>60</v>
@@ -1738,7 +1738,7 @@
         <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
@@ -1750,19 +1750,19 @@
         <v>175</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
@@ -1777,7 +1777,7 @@
         <v>3.55</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
@@ -1792,13 +1792,13 @@
         <v>32</v>
       </c>
       <c r="AZ7" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA7" t="n">
         <v>200</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1842,19 +1842,19 @@
         <v>2.27</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
         <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,22 +1863,22 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1893,7 +1893,7 @@
         <v>12.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z8" t="n">
         <v>24</v>
@@ -1902,13 +1902,13 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
         <v>11.75</v>
@@ -1920,10 +1920,10 @@
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.25</v>
@@ -1932,10 +1932,10 @@
         <v>37</v>
       </c>
       <c r="AL8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN8" t="n">
         <v>4.3</v>
@@ -1956,31 +1956,31 @@
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU8" t="n">
         <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
         <v>4.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>75</v>
       </c>
       <c r="BA8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="K9" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2057,31 +2057,31 @@
         <v>2.07</v>
       </c>
       <c r="S9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
+        <v>9</v>
+      </c>
+      <c r="X9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.5</v>
       </c>
-      <c r="X9" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB9" t="n">
         <v>22</v>
@@ -2090,10 +2090,10 @@
         <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
         <v>50</v>
@@ -2102,34 +2102,34 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM9" t="n">
         <v>30</v>
       </c>
-      <c r="AM9" t="n">
-        <v>32</v>
-      </c>
       <c r="AN9" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR9" t="n">
         <v>60</v>
@@ -2138,28 +2138,28 @@
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2385,145 +2385,145 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB11" t="n">
         <v>32</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS11" t="n">
         <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV11" t="n">
         <v>100</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AX11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY11" t="n">
         <v>45</v>
       </c>
-      <c r="AY11" t="n">
-        <v>50</v>
-      </c>
       <c r="AZ11" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA11" t="n">
         <v>350</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>400</v>
       </c>
       <c r="BB11" t="n">
         <v>450</v>
@@ -2573,13 +2573,13 @@
         <v>6.1</v>
       </c>
       <c r="I12" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="K12" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="L12" t="n">
         <v>8.25</v>
@@ -2600,13 +2600,13 @@
         <v>1.35</v>
       </c>
       <c r="R12" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="S12" t="n">
         <v>1.21</v>
       </c>
       <c r="T12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2615,16 +2615,16 @@
         <v>1.9</v>
       </c>
       <c r="W12" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
@@ -2651,13 +2651,13 @@
         <v>40</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
         <v>35</v>
       </c>
       <c r="AK12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL12" t="n">
         <v>120</v>
@@ -2666,7 +2666,7 @@
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO12" t="n">
         <v>5.1</v>
@@ -2684,7 +2684,7 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AU12" t="n">
         <v>8.5</v>
@@ -2693,13 +2693,13 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AX12" t="n">
         <v>60</v>
       </c>
       <c r="AY12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ12" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -855,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -2391,7 +2391,7 @@
         <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
@@ -2400,7 +2400,7 @@
         <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2433,7 +2433,7 @@
         <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X11" t="n">
         <v>6.3</v>
@@ -2466,10 +2466,10 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2481,7 +2481,7 @@
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>3.15</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H12" t="n">
         <v>6.1</v>
       </c>
       <c r="I12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K12" t="n">
         <v>2.87</v>
       </c>
       <c r="L12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2594,19 +2594,19 @@
         <v>1.11</v>
       </c>
       <c r="P12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Q12" t="n">
         <v>1.35</v>
       </c>
       <c r="R12" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="S12" t="n">
         <v>1.21</v>
       </c>
       <c r="T12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2648,31 +2648,31 @@
         <v>450</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="n">
         <v>400</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="n">
         <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
         <v>5.1</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>11</v>
@@ -2684,22 +2684,22 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
         <v>60</v>
       </c>
       <c r="AY12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ12" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -1111,52 +1111,52 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1171,13 +1171,13 @@
         <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1186,19 +1186,19 @@
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1216,25 +1216,25 @@
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="n">
         <v>7</v>
@@ -1246,10 +1246,10 @@
         <v>41</v>
       </c>
       <c r="AZ4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA4" t="n">
         <v>151</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>201</v>
       </c>
       <c r="BB4" t="n">
         <v>501</v>
@@ -1293,58 +1293,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>17</v>
@@ -1359,34 +1359,34 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1410,10 +1410,10 @@
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1422,10 +1422,10 @@
         <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ5" t="n">
         <v>41</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="H12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="K12" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2603,28 +2603,28 @@
         <v>2.95</v>
       </c>
       <c r="S12" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="T12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="X12" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
@@ -2633,7 +2633,7 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
         <v>13.5</v>
@@ -2648,31 +2648,31 @@
         <v>450</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AL12" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO12" t="n">
         <v>5.1</v>
       </c>
       <c r="AP12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ12" t="n">
         <v>11</v>
@@ -2684,28 +2684,28 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AY12" t="n">
         <v>40</v>
       </c>
       <c r="AZ12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BA12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB12" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
         <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1496,7 +1496,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1535,10 +1535,10 @@
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
         <v>26</v>
@@ -2030,13 +2030,13 @@
         <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2051,46 +2051,46 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE9" t="n">
         <v>12.5</v>
@@ -2102,10 +2102,10 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
         <v>11.5</v>
@@ -2117,28 +2117,28 @@
         <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
         <v>4.05</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>37</v>
       </c>
       <c r="AR9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS9" t="n">
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU9" t="n">
         <v>6.8</v>
@@ -2156,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA9" t="n">
         <v>110</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75</v>
+        <v>11.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2591,22 +2591,22 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="R12" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2615,16 +2615,16 @@
         <v>1.93</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
@@ -2633,82 +2633,82 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="n">
         <v>450</v>
       </c>
       <c r="AH12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AK12" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AL12" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
         <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AP12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AS12" t="n">
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV12" t="n">
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AX12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AY12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ12" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BA12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB12" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC12" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -1159,7 +1159,7 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
         <v>6.5</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1216,10 +1216,10 @@
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1299,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1308,40 +1308,40 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.53</v>
       </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
@@ -1359,7 +1359,7 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1374,13 +1374,13 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>17</v>
@@ -1410,10 +1410,10 @@
         <v>351</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1434,7 +1434,7 @@
         <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC5" t="n">
         <v>126</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="H12" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="I12" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2591,37 +2591,37 @@
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="R12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="T12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>8</v>
@@ -2630,85 +2630,85 @@
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
         <v>10.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
         <v>80</v>
       </c>
       <c r="AG12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>45</v>
       </c>
-      <c r="AI12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>37</v>
-      </c>
       <c r="AK12" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AL12" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
         <v>3.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AP12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AR12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS12" t="n">
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AY12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BA12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC12" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
@@ -950,7 +950,7 @@
         <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.73</v>
@@ -977,7 +977,7 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1046,7 +1046,7 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1535,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1562,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1571,13 +1571,13 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1601,19 +1601,19 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
@@ -1669,10 +1669,10 @@
         <v>1.78</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L7" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1696,7 +1696,7 @@
         <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="U7" t="n">
         <v>1.7</v>
@@ -1705,7 +1705,7 @@
         <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA7" t="n">
         <v>10.25</v>
@@ -1729,7 +1729,7 @@
         <v>10.25</v>
       </c>
       <c r="AE7" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF7" t="n">
         <v>60</v>
@@ -1738,7 +1738,7 @@
         <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>55</v>
@@ -1753,16 +1753,16 @@
         <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
@@ -1771,16 +1771,16 @@
         <v>32</v>
       </c>
       <c r="AS7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
         <v>8.75</v>
@@ -1798,7 +1798,7 @@
         <v>200</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1851,10 +1851,10 @@
         <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
         <v>3.7</v>
@@ -1878,7 +1878,7 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1902,7 +1902,7 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
@@ -1920,10 +1920,10 @@
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.25</v>
@@ -1935,7 +1935,7 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
         <v>4.3</v>
@@ -1956,31 +1956,31 @@
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
         <v>4.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
         <v>75</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2600,19 +2600,19 @@
         <v>1.28</v>
       </c>
       <c r="R12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="S12" t="n">
         <v>1.18</v>
       </c>
       <c r="T12" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
@@ -2624,19 +2624,19 @@
         <v>10.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA12" t="n">
         <v>10</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>10.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
         <v>25</v>
@@ -2648,7 +2648,7 @@
         <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="n">
         <v>150</v>
@@ -2657,7 +2657,7 @@
         <v>45</v>
       </c>
       <c r="AK12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL12" t="n">
         <v>175</v>
@@ -2666,16 +2666,16 @@
         <v>100</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AP12" t="n">
         <v>12</v>
       </c>
       <c r="AQ12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AR12" t="n">
         <v>24</v>
@@ -2684,7 +2684,7 @@
         <v>120</v>
       </c>
       <c r="AT12" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2693,7 +2693,7 @@
         <v>60</v>
       </c>
       <c r="AW12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AX12" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -953,22 +953,22 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.03</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -977,7 +977,7 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1046,7 +1046,7 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1252,7 +1252,7 @@
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1344,7 +1344,7 @@
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -941,16 +941,16 @@
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="L3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N3" t="n">
         <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.8</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1046,7 +1046,7 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
@@ -1305,7 +1305,7 @@
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>2.88</v>
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="n">
         <v>41</v>
@@ -1383,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1422,7 +1422,7 @@
         <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2051,10 +2051,10 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2069,7 +2069,7 @@
         <v>2.18</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X9" t="n">
         <v>10.5</v>
@@ -2081,19 +2081,19 @@
         <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
         <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>50</v>
@@ -2102,10 +2102,10 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>11.5</v>
@@ -2117,13 +2117,13 @@
         <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>17.5</v>
@@ -2141,7 +2141,7 @@
         <v>2.9</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
@@ -2156,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA9" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -971,13 +971,13 @@
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X3" t="n">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>1.91</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>101</v>
@@ -1302,31 +1302,31 @@
         <v>2.05</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>2.88</v>
       </c>
       <c r="M5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.62</v>
@@ -1335,10 +1335,10 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
         <v>8.5</v>
@@ -1347,7 +1347,7 @@
         <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
         <v>41</v>
@@ -1359,7 +1359,7 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1374,7 +1374,7 @@
         <v>900</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1413,7 +1413,7 @@
         <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1422,7 +1422,7 @@
         <v>3.75</v>
       </c>
       <c r="AX5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY5" t="n">
         <v>29</v>
@@ -1657,64 +1657,64 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K7" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="L7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="T7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>10.25</v>
@@ -1723,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="AC7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9.75</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>10.25</v>
       </c>
       <c r="AE7" t="n">
         <v>16.5</v>
@@ -1738,58 +1738,58 @@
         <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL7" t="n">
         <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
         <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AP7" t="n">
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AR7" t="n">
         <v>32</v>
       </c>
       <c r="AS7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ7" t="n">
         <v>250</v>
@@ -1798,7 +1798,7 @@
         <v>200</v>
       </c>
       <c r="BB7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -1842,10 +1842,10 @@
         <v>2.27</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="J8" t="n">
         <v>2.9</v>
@@ -1854,7 +1854,7 @@
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1884,7 +1884,7 @@
         <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
         <v>9.5</v>
@@ -1902,22 +1902,22 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH8" t="n">
         <v>11</v>
@@ -1944,13 +1944,13 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
@@ -1965,10 +1965,10 @@
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY8" t="n">
         <v>22</v>
@@ -1977,7 +1977,7 @@
         <v>75</v>
       </c>
       <c r="BA8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB8" t="n">
         <v>250</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2063,7 +2063,7 @@
         <v>2.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V9" t="n">
         <v>2.18</v>
@@ -2075,7 +2075,7 @@
         <v>10.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
         <v>18</v>
@@ -2093,7 +2093,7 @@
         <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF9" t="n">
         <v>50</v>
@@ -2105,19 +2105,19 @@
         <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2126,13 +2126,13 @@
         <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS9" t="n">
         <v>200</v>
@@ -2147,22 +2147,22 @@
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
         <v>90</v>
       </c>
       <c r="BA9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,37 +2203,37 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>2.47</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
         <v>1.85</v>
@@ -2251,25 +2251,25 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
         <v>6.2</v>
@@ -2284,7 +2284,7 @@
         <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2299,22 +2299,22 @@
         <v>19.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>70</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS10" t="n">
         <v>300</v>
@@ -2323,7 +2323,7 @@
         <v>2.67</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV10" t="n">
         <v>60</v>
@@ -2332,10 +2332,10 @@
         <v>4.45</v>
       </c>
       <c r="AX10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ10" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -929,55 +929,55 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
         <v>9</v>
@@ -995,7 +995,7 @@
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1016,7 +1016,7 @@
         <v>15</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
@@ -1046,10 +1046,10 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>101</v>
@@ -1067,7 +1067,7 @@
         <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1129,22 +1129,22 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1165,7 +1165,7 @@
         <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1216,10 +1216,10 @@
         <v>8.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1252,7 +1252,7 @@
         <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BC4" t="n">
         <v>81</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1383,7 +1383,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>21</v>
@@ -1392,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="H7" t="n">
         <v>4.75</v>
@@ -1672,7 +1672,7 @@
         <v>2.55</v>
       </c>
       <c r="L7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1699,22 +1699,22 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
         <v>9.5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA7" t="n">
         <v>10.25</v>
@@ -1732,16 +1732,16 @@
         <v>16.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
         <v>350</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ7" t="n">
         <v>21</v>
@@ -1750,25 +1750,25 @@
         <v>150</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AP7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AS7" t="n">
         <v>150</v>
@@ -1777,7 +1777,7 @@
         <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
@@ -1789,10 +1789,10 @@
         <v>37</v>
       </c>
       <c r="AY7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ7" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA7" t="n">
         <v>200</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1887,19 +1887,19 @@
         <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>8.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
@@ -1908,10 +1908,10 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>45</v>
@@ -1920,10 +1920,10 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ8" t="n">
         <v>10.25</v>
@@ -1935,7 +1935,7 @@
         <v>23</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN8" t="n">
         <v>4.3</v>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>50</v>
@@ -1953,7 +1953,7 @@
         <v>75</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT8" t="n">
         <v>2.75</v>
@@ -1971,16 +1971,16 @@
         <v>16.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA8" t="n">
         <v>110</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,76 +2021,76 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="K9" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L9" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T9" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U9" t="n">
         <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB9" t="n">
         <v>22</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AE9" t="n">
         <v>12.5</v>
@@ -2102,67 +2102,67 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS9" t="n">
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -777,10 +777,10 @@
         <v>3.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -801,10 +801,10 @@
         <v>8.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -831,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
@@ -849,13 +849,13 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>51</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX2" t="n">
         <v>23</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.17</v>
@@ -1025,7 +1025,7 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>4</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1162,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1177,19 +1177,19 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -1210,7 +1210,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>8.5</v>
@@ -1219,7 +1219,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,7 +1231,7 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1505,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1538,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
@@ -1547,22 +1547,22 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1571,13 +1571,13 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1589,31 +1589,31 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>301</v>
@@ -1845,16 +1845,16 @@
         <v>3.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="J8" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1884,22 +1884,22 @@
         <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>22</v>
@@ -1917,7 +1917,7 @@
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH8" t="n">
         <v>10.5</v>
@@ -1929,7 +1929,7 @@
         <v>10.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>50</v>
@@ -1953,7 +1953,7 @@
         <v>75</v>
       </c>
       <c r="AS8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
         <v>2.75</v>
@@ -1965,16 +1965,16 @@
         <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>23</v>
       </c>
       <c r="AZ8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BA8" t="n">
         <v>110</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>3.15</v>
       </c>
       <c r="J9" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="K9" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2057,7 +2057,7 @@
         <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
         <v>2.87</v>
@@ -2066,7 +2066,7 @@
         <v>1.6</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W9" t="n">
         <v>9.25</v>
@@ -2078,7 +2078,7 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
         <v>15.5</v>
@@ -2150,7 +2150,7 @@
         <v>5.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2227,7 +2227,7 @@
         <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>3.25</v>
@@ -2251,10 +2251,10 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -2266,13 +2266,13 @@
         <v>23</v>
       </c>
       <c r="AB10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" t="n">
         <v>12.5</v>
@@ -2284,7 +2284,7 @@
         <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI10" t="n">
         <v>13</v>
@@ -2293,46 +2293,46 @@
         <v>9.25</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
         <v>19.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
         <v>4.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
         <v>70</v>
       </c>
       <c r="AR10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT10" t="n">
         <v>2.67</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW10" t="n">
         <v>4.45</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2391,40 +2391,40 @@
         <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
         <v>6.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
         <v>3.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2433,7 +2433,7 @@
         <v>1.7</v>
       </c>
       <c r="W11" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X11" t="n">
         <v>6.3</v>
@@ -2448,10 +2448,10 @@
         <v>12.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>8.25</v>
@@ -2481,10 +2481,10 @@
         <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AO11" t="n">
         <v>6.8</v>
@@ -2502,7 +2502,7 @@
         <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8.75</v>
@@ -2517,7 +2517,7 @@
         <v>40</v>
       </c>
       <c r="AY11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -798,25 +798,25 @@
         <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -825,22 +825,22 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
         <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
@@ -849,7 +849,7 @@
         <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
@@ -929,46 +929,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I3" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.6</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.8</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.73</v>
-      </c>
       <c r="P3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.03</v>
       </c>
       <c r="U3" t="n">
         <v>2.63</v>
@@ -977,25 +977,25 @@
         <v>1.44</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB3" t="n">
         <v>51</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AD3" t="n">
         <v>6</v>
@@ -1010,16 +1010,16 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1028,16 +1028,16 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>41</v>
       </c>
       <c r="AQ3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>126</v>
@@ -1046,7 +1046,7 @@
         <v>351</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU3" t="n">
         <v>11</v>
@@ -1055,16 +1055,16 @@
         <v>101</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1478,10 +1478,10 @@
         <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1496,7 +1496,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1532,13 +1532,13 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1574,7 +1574,7 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>9.5</v>
@@ -1589,13 +1589,13 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="K7" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1684,28 +1684,28 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q7" t="n">
         <v>1.47</v>
       </c>
       <c r="R7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X7" t="n">
         <v>8</v>
@@ -1714,10 +1714,10 @@
         <v>8.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB7" t="n">
         <v>20</v>
@@ -1726,79 +1726,79 @@
         <v>9.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF7" t="n">
         <v>55</v>
       </c>
       <c r="AG7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK7" t="n">
         <v>150</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>50</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AP7" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS7" t="n">
         <v>150</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV7" t="n">
         <v>55</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ7" t="n">
         <v>200</v>
       </c>
       <c r="BA7" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB7" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC7" t="n">
         <v>51</v>
@@ -2388,43 +2388,43 @@
         <v>1.45</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I11" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
         <v>1.98</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L11" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
         <v>3.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R11" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2439,19 +2439,19 @@
         <v>6.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z11" t="n">
         <v>9.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
         <v>8.25</v>
@@ -2472,37 +2472,37 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
         <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AO11" t="n">
         <v>6.8</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ11" t="n">
         <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS11" t="n">
         <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU11" t="n">
         <v>8.75</v>
@@ -2511,13 +2511,13 @@
         <v>100</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX11" t="n">
         <v>40</v>
       </c>
       <c r="AY11" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AZ11" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
         <v>2.75</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.73</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
         <v>1.8</v>
@@ -980,7 +980,7 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -1013,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="AI3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1040,7 +1040,7 @@
         <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
         <v>351</v>
@@ -1058,7 +1058,7 @@
         <v>4.75</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1162,10 +1162,10 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
         <v>11</v>
@@ -1177,13 +1177,13 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1198,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1210,16 +1210,16 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
@@ -1231,13 +1231,13 @@
         <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1481,7 +1481,7 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1574,10 +1574,10 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1663,7 +1663,7 @@
         <v>4.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
         <v>1.85</v>
@@ -1684,7 +1684,7 @@
         <v>1.15</v>
       </c>
       <c r="P7" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="Q7" t="n">
         <v>1.47</v>
@@ -1753,7 +1753,7 @@
         <v>60</v>
       </c>
       <c r="AM7" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN7" t="n">
         <v>3.5</v>
@@ -1777,10 +1777,10 @@
         <v>3.45</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW7" t="n">
         <v>8.25</v>
@@ -1839,19 +1839,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L8" t="n">
         <v>3.5</v>
@@ -1860,25 +1860,25 @@
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1887,7 +1887,7 @@
         <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>13</v>
@@ -1902,13 +1902,13 @@
         <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>11.75</v>
@@ -1929,7 +1929,7 @@
         <v>10.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL8" t="n">
         <v>23</v>
@@ -1941,28 +1941,28 @@
         <v>4.3</v>
       </c>
       <c r="AO8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="n">
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
         <v>4.9</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>2.65</v>
@@ -2036,7 +2036,7 @@
         <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2048,7 +2048,7 @@
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q9" t="n">
         <v>1.72</v>
@@ -2060,7 +2060,7 @@
         <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="U9" t="n">
         <v>1.6</v>
@@ -2069,22 +2069,22 @@
         <v>2.18</v>
       </c>
       <c r="W9" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA9" t="n">
         <v>15.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -2102,28 +2102,28 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AI9" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ9" t="n">
         <v>11</v>
       </c>
       <c r="AK9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="n">
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AP9" t="n">
         <v>17.5</v>
@@ -2138,28 +2138,28 @@
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX9" t="n">
         <v>17.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ9" t="n">
         <v>80</v>
       </c>
       <c r="BA9" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
         <v>250</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>2.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2233,7 +2233,7 @@
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>1.85</v>
@@ -2251,28 +2251,28 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X10" t="n">
         <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z10" t="n">
         <v>32</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE10" t="n">
         <v>12.5</v>
@@ -2284,37 +2284,37 @@
         <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.25</v>
       </c>
       <c r="AK10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM10" t="n">
         <v>28</v>
       </c>
-      <c r="AL10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>27</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS10" t="n">
         <v>250</v>
@@ -2323,25 +2323,25 @@
         <v>2.67</v>
       </c>
       <c r="AU10" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB10" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -1114,7 +1114,7 @@
         <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
         <v>6.5</v>
@@ -1129,10 +1129,10 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1141,28 +1141,28 @@
         <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1174,16 +1174,16 @@
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,13 +1192,13 @@
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>67</v>
@@ -1225,19 +1225,19 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
@@ -1481,7 +1481,7 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1493,22 +1493,22 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1535,10 +1535,10 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1574,10 +1574,10 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1589,13 +1589,13 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1610,7 +1610,7 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1839,34 +1839,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.07</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q8" t="n">
         <v>1.75</v>
@@ -1878,7 +1878,7 @@
         <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="U8" t="n">
         <v>1.57</v>
@@ -1899,13 +1899,13 @@
         <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1926,19 +1926,19 @@
         <v>16</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AO8" t="n">
         <v>12.5</v>
@@ -1956,31 +1956,31 @@
         <v>250</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="AU8" t="n">
         <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AX8" t="n">
         <v>16</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
         <v>75</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="K9" t="n">
         <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2045,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
         <v>3.7</v>
@@ -2063,7 +2063,7 @@
         <v>2.9</v>
       </c>
       <c r="U9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
         <v>2.18</v>
@@ -2072,25 +2072,25 @@
         <v>8.75</v>
       </c>
       <c r="X9" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AE9" t="n">
         <v>12.5</v>
@@ -2102,37 +2102,37 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11.75</v>
       </c>
-      <c r="AI9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
       <c r="AK9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AR9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS9" t="n">
         <v>200</v>
@@ -2141,28 +2141,28 @@
         <v>2.9</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2227,13 +2227,13 @@
         <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
         <v>1.85</v>
@@ -2254,19 +2254,19 @@
         <v>9.25</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
@@ -2287,31 +2287,31 @@
         <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK10" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AL10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP10" t="n">
         <v>20</v>
       </c>
-      <c r="AM10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR10" t="n">
         <v>90</v>
@@ -2329,22 +2329,22 @@
         <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA10" t="n">
         <v>100</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -1135,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
         <v>2.05</v>
@@ -1493,16 +1493,16 @@
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.1</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
@@ -1839,148 +1839,148 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="H8" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="J8" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="K8" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.24</v>
       </c>
       <c r="P8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R8" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T8" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG8" t="n">
         <v>300</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>80</v>
       </c>
-      <c r="AS8" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>75</v>
-      </c>
       <c r="BA8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2045,7 +2045,7 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
         <v>3.7</v>
@@ -2060,31 +2060,31 @@
         <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
         <v>10.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -2102,67 +2102,67 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR9" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS9" t="n">
         <v>200</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AX9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2218,7 +2218,7 @@
         <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2227,13 +2227,13 @@
         <v>7.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
         <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R10" t="n">
         <v>1.85</v>
@@ -2251,10 +2251,10 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2263,10 +2263,10 @@
         <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>7.2</v>
@@ -2284,31 +2284,31 @@
         <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI10" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
         <v>4.55</v>
       </c>
       <c r="AO10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>60</v>
@@ -2344,7 +2344,7 @@
         <v>100</v>
       </c>
       <c r="BB10" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2385,46 +2385,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I11" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T11" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2436,13 +2436,13 @@
         <v>6.2</v>
       </c>
       <c r="X11" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Y11" t="n">
         <v>8.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2451,7 +2451,7 @@
         <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
         <v>8.25</v>
@@ -2466,19 +2466,19 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
@@ -2487,13 +2487,13 @@
         <v>3.15</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AP11" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
         <v>55</v>
@@ -2502,25 +2502,25 @@
         <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="AU11" t="n">
         <v>8.75</v>
       </c>
       <c r="AV11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AX11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BA11" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
         <v>3.15</v>
@@ -1854,37 +1854,37 @@
         <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
         <v>2.8</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
@@ -1902,13 +1902,13 @@
         <v>15.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1917,25 +1917,25 @@
         <v>50</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10.75</v>
       </c>
       <c r="AK8" t="n">
         <v>40</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN8" t="n">
         <v>4.15</v>
@@ -1944,7 +1944,7 @@
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>40</v>
@@ -1959,10 +1959,10 @@
         <v>2.8</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
         <v>5.1</v>
@@ -1971,13 +1971,13 @@
         <v>17.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BA8" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB8" t="n">
         <v>300</v>
@@ -2024,10 +2024,10 @@
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
         <v>2.6</v>
@@ -2036,7 +2036,7 @@
         <v>2.18</v>
       </c>
       <c r="L9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2048,7 +2048,7 @@
         <v>1.24</v>
       </c>
       <c r="P9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q9" t="n">
         <v>1.72</v>
@@ -2057,7 +2057,7 @@
         <v>2.05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T9" t="n">
         <v>2.87</v>
@@ -2102,7 +2102,7 @@
         <v>300</v>
       </c>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI9" t="n">
         <v>20</v>
@@ -2141,7 +2141,7 @@
         <v>2.87</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I10" t="n">
         <v>2.62</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>3.2</v>
@@ -2224,25 +2224,25 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S10" t="n">
         <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U10" t="n">
         <v>1.65</v>
@@ -2251,7 +2251,7 @@
         <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
@@ -2260,19 +2260,19 @@
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB10" t="n">
         <v>29</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>28</v>
-      </c>
       <c r="AC10" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE10" t="n">
         <v>12.5</v>
@@ -2284,10 +2284,10 @@
         <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ10" t="n">
         <v>9.5</v>
@@ -2299,28 +2299,28 @@
         <v>21</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU10" t="n">
         <v>6.8</v>
@@ -2329,22 +2329,22 @@
         <v>60</v>
       </c>
       <c r="AW10" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BA10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2388,25 +2388,25 @@
         <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I11" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="J11" t="n">
         <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -2439,7 +2439,7 @@
         <v>6.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
         <v>9</v>
@@ -2448,13 +2448,13 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -2466,19 +2466,19 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>80</v>
@@ -2508,19 +2508,19 @@
         <v>8.75</v>
       </c>
       <c r="AV11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AX11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AY11" t="n">
         <v>45</v>
       </c>
       <c r="AZ11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BA11" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.77</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
@@ -2227,121 +2227,121 @@
         <v>7.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S10" t="n">
         <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U10" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC10" t="n">
         <v>7.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>14</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP10" t="n">
         <v>21</v>
       </c>
-      <c r="AM10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV10" t="n">
         <v>65</v>
       </c>
-      <c r="AR10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>60</v>
-      </c>
       <c r="AW10" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA10" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="BB10" t="n">
         <v>300</v>
@@ -2385,46 +2385,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.05</v>
@@ -2436,25 +2436,25 @@
         <v>6.2</v>
       </c>
       <c r="X11" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -2466,13 +2466,13 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
         <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>150</v>
@@ -2481,19 +2481,19 @@
         <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
         <v>3.15</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AP11" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
         <v>55</v>
@@ -2502,16 +2502,16 @@
         <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>8.75</v>
       </c>
       <c r="AV11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AX11" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-09.xlsx
@@ -2184,7 +2184,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>23:07</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2209,52 +2209,52 @@
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.07</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S10" t="n">
         <v>1.42</v>
       </c>
       <c r="T10" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y10" t="n">
         <v>9.25</v>
@@ -2263,19 +2263,19 @@
         <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
         <v>6.2</v>
       </c>
       <c r="AE10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
@@ -2284,10 +2284,10 @@
         <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AI10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>10</v>
@@ -2296,31 +2296,31 @@
         <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2332,16 +2332,16 @@
         <v>4.7</v>
       </c>
       <c r="AX10" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB10" t="n">
         <v>300</v>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>23:11</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
